--- a/SacPasRecords/SacPasDailyDataTable2023-09-20.xlsx
+++ b/SacPasRecords/SacPasDailyDataTable2023-09-20.xlsx
@@ -355,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG54"/>
+  <dimension ref="A1:AG55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5368,6 +5368,15 @@
       <c r="S53">
         <v>23.44</v>
       </c>
+      <c r="W53">
+        <v>-7020</v>
+      </c>
+      <c r="X53">
+        <v>-6560</v>
+      </c>
+      <c r="Y53">
+        <v>-6160</v>
+      </c>
       <c r="AE53">
         <v>20.74</v>
       </c>
@@ -5444,6 +5453,77 @@
       </c>
       <c r="AG54">
         <v>95</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>45188.29166666667</v>
+      </c>
+      <c r="B55">
+        <v>20.8</v>
+      </c>
+      <c r="C55">
+        <v>20.27</v>
+      </c>
+      <c r="D55">
+        <v>22.23</v>
+      </c>
+      <c r="E55">
+        <v>21.1</v>
+      </c>
+      <c r="G55">
+        <v>7.43</v>
+      </c>
+      <c r="H55">
+        <v>21.23</v>
+      </c>
+      <c r="I55">
+        <v>2.46</v>
+      </c>
+      <c r="J55">
+        <v>1.39</v>
+      </c>
+      <c r="K55">
+        <v>3.58</v>
+      </c>
+      <c r="L55">
+        <v>1.65</v>
+      </c>
+      <c r="M55">
+        <v>5.48</v>
+      </c>
+      <c r="O55">
+        <v>-2563</v>
+      </c>
+      <c r="P55">
+        <v>10539</v>
+      </c>
+      <c r="Q55">
+        <v>38.2</v>
+      </c>
+      <c r="R55">
+        <v>75</v>
+      </c>
+      <c r="S55">
+        <v>23.06</v>
+      </c>
+      <c r="Z55">
+        <v>8485</v>
+      </c>
+      <c r="AA55">
+        <v>5002</v>
+      </c>
+      <c r="AB55">
+        <v>3483</v>
+      </c>
+      <c r="AE55">
+        <v>20.43</v>
+      </c>
+      <c r="AF55">
+        <v>10.62</v>
+      </c>
+      <c r="AG55">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
